--- a/modules/web/src/com/company/quarium/web/ChecklistImportTemplate.xlsx
+++ b/modules/web/src/com/company/quarium/web/ChecklistImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20705" windowHeight="8245"/>
+    <workbookView windowWidth="19965" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Наименование чек-листа</t>
   </si>
   <si>
     <t>Начальные условия</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
   <si>
     <t>Наименование кейса</t>
@@ -37,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -63,6 +66,34 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -71,7 +102,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,135 +208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +422,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,17 +458,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,37 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,143 +513,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,19 +1061,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.92561983471074" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.925" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.0661157024793"/>
-    <col min="2" max="2" width="87.8099173553719"/>
-    <col min="3" max="3" width="26.7438016528926"/>
-    <col min="4" max="4" width="25.6280991735537"/>
-    <col min="5" max="1025" width="9.09090909090909"/>
+    <col min="1" max="1" width="31.0666666666667"/>
+    <col min="2" max="2" width="32.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="4" max="4" width="25.625"/>
+    <col min="5" max="1025" width="9.09166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1085,32 +1088,34 @@
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
@@ -1118,30 +1123,36 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
